--- a/Documentacion/Product backlog/Product Backlog v1.3/Product Backlog_Versión 1.3.xlsx
+++ b/Documentacion/Product backlog/Product Backlog v1.3/Product Backlog_Versión 1.3.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeteros\Desktop\Proyecto_E-commerce\Documentacion\Product backlog\Product Backlog v1.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAB1602B-5844-47BC-A56A-1F263B6263C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B63C25D4-0C9C-4658-9947-96A2EA503977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="185">
   <si>
     <t>Enunciado de la Historia</t>
   </si>
@@ -428,15 +428,6 @@
     <t>Validar la interacción entre las diferentes capas del sistema (base de datos, lógica y presentación).</t>
   </si>
   <si>
-    <t>HT-044</t>
-  </si>
-  <si>
-    <t>Optimizar consultas y endpoints detectados</t>
-  </si>
-  <si>
-    <t>Mejorar el rendimiento de las consultas y endpoints identificados durante las pruebas.</t>
-  </si>
-  <si>
     <t>HT-045</t>
   </si>
   <si>
@@ -594,6 +585,12 @@
   </si>
   <si>
     <t>Añadir validaciones para la gestión de inventarios</t>
+  </si>
+  <si>
+    <t>Diseñar pantalla de devoluciones</t>
+  </si>
+  <si>
+    <t>Diseñar la interfa donde los cliente puedan realizar las respectivas devoluciones</t>
   </si>
 </sst>
 </file>
@@ -1276,8 +1273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="D47" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I47" sqref="I47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -1361,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="I5" s="10" t="s">
         <v>85</v>
@@ -1377,7 +1374,7 @@
         <v>14</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>83</v>
@@ -1389,10 +1386,10 @@
         <v>4</v>
       </c>
       <c r="H6" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I6" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J6" s="3"/>
       <c r="K6"/>
@@ -1417,10 +1414,10 @@
         <v>4</v>
       </c>
       <c r="H7" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J7" s="3"/>
       <c r="K7"/>
@@ -1445,10 +1442,10 @@
         <v>4</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J8" s="3"/>
       <c r="K8"/>
@@ -1461,10 +1458,10 @@
         <v>17</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F9" s="18" t="s">
         <v>58</v>
@@ -1473,10 +1470,10 @@
         <v>4</v>
       </c>
       <c r="H9" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9"/>
@@ -1489,10 +1486,10 @@
         <v>18</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F10" s="18" t="s">
         <v>58</v>
@@ -1501,10 +1498,10 @@
         <v>4</v>
       </c>
       <c r="H10" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J10" s="3"/>
       <c r="K10"/>
@@ -1529,23 +1526,23 @@
         <v>4</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J11" s="3"/>
       <c r="K11"/>
       <c r="L11"/>
     </row>
-    <row r="12" spans="1:12" ht="44.25" thickBot="1">
+    <row r="12" spans="1:12" ht="36.75" thickBot="1">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="18" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>61</v>
@@ -1557,23 +1554,23 @@
         <v>4</v>
       </c>
       <c r="H12" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I12" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J12" s="3"/>
       <c r="K12"/>
       <c r="L12"/>
     </row>
-    <row r="13" spans="1:12" ht="44.25" thickBot="1">
+    <row r="13" spans="1:12" ht="36.75" thickBot="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="18" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>62</v>
@@ -1585,16 +1582,16 @@
         <v>4</v>
       </c>
       <c r="H13" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J13" s="3"/>
       <c r="K13"/>
       <c r="L13"/>
     </row>
-    <row r="14" spans="1:12" ht="44.25" thickBot="1">
+    <row r="14" spans="1:12" ht="36.75" thickBot="1">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="18" t="s">
@@ -1613,16 +1610,16 @@
         <v>4</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I14" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J14" s="3"/>
       <c r="K14"/>
       <c r="L14"/>
     </row>
-    <row r="15" spans="1:12" ht="44.25" thickBot="1">
+    <row r="15" spans="1:12" ht="36.75" thickBot="1">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="18" t="s">
@@ -1641,10 +1638,10 @@
         <v>4</v>
       </c>
       <c r="H15" s="20" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J15" s="3"/>
       <c r="K15"/>
@@ -1669,10 +1666,10 @@
         <v>4</v>
       </c>
       <c r="H16" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J16" s="3"/>
       <c r="K16"/>
@@ -1688,7 +1685,7 @@
         <v>31</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F17" s="18" t="s">
         <v>32</v>
@@ -1697,16 +1694,16 @@
         <v>4</v>
       </c>
       <c r="H17" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J17" s="3"/>
       <c r="K17"/>
       <c r="L17"/>
     </row>
-    <row r="18" spans="1:12" ht="44.25" thickBot="1">
+    <row r="18" spans="1:12" ht="36.75" thickBot="1">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="18" t="s">
@@ -1725,10 +1722,10 @@
         <v>4</v>
       </c>
       <c r="H18" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J18" s="3"/>
       <c r="K18"/>
@@ -1741,7 +1738,7 @@
         <v>22</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>63</v>
@@ -1753,16 +1750,16 @@
         <v>4</v>
       </c>
       <c r="H19" s="20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J19" s="3"/>
       <c r="K19"/>
       <c r="L19"/>
     </row>
-    <row r="20" spans="1:12" ht="44.25" thickBot="1">
+    <row r="20" spans="1:12" ht="36.75" thickBot="1">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="18" t="s">
@@ -1772,7 +1769,7 @@
         <v>35</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F20" s="18" t="s">
         <v>30</v>
@@ -1781,16 +1778,16 @@
         <v>4</v>
       </c>
       <c r="H20" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J20" s="3"/>
       <c r="K20"/>
       <c r="L20"/>
     </row>
-    <row r="21" spans="1:12" ht="44.25" thickBot="1">
+    <row r="21" spans="1:12" ht="36.75" thickBot="1">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="18" t="s">
@@ -1809,26 +1806,26 @@
         <v>5</v>
       </c>
       <c r="H21" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I21" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J21" s="3"/>
       <c r="K21"/>
       <c r="L21"/>
     </row>
-    <row r="22" spans="1:12" ht="44.25" thickBot="1">
+    <row r="22" spans="1:12" ht="36.75" thickBot="1">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="18" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F22" s="18" t="s">
         <v>92</v>
@@ -1837,10 +1834,10 @@
         <v>4</v>
       </c>
       <c r="H22" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J22" s="3"/>
       <c r="K22"/>
@@ -1865,10 +1862,10 @@
         <v>4</v>
       </c>
       <c r="H23" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I23" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J23" s="3"/>
       <c r="K23"/>
@@ -1893,10 +1890,10 @@
         <v>4</v>
       </c>
       <c r="H24" s="20" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J24" s="3"/>
       <c r="K24"/>
@@ -1921,16 +1918,16 @@
         <v>4</v>
       </c>
       <c r="H25" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I25" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J25" s="3"/>
       <c r="K25"/>
       <c r="L25"/>
     </row>
-    <row r="26" spans="1:12" ht="44.25" thickBot="1">
+    <row r="26" spans="1:12" ht="36.75" thickBot="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="18" t="s">
@@ -1949,10 +1946,10 @@
         <v>4</v>
       </c>
       <c r="H26" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I26" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J26" s="3"/>
       <c r="K26"/>
@@ -1977,10 +1974,10 @@
         <v>4</v>
       </c>
       <c r="H27" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I27" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J27" s="3"/>
       <c r="K27"/>
@@ -2005,10 +2002,10 @@
         <v>4</v>
       </c>
       <c r="H28" s="20" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I28" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J28" s="3"/>
       <c r="K28"/>
@@ -2033,10 +2030,10 @@
         <v>4</v>
       </c>
       <c r="H29" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I29" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J29" s="3"/>
       <c r="K29"/>
@@ -2061,16 +2058,16 @@
         <v>4</v>
       </c>
       <c r="H30" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J30" s="3"/>
       <c r="K30"/>
       <c r="L30"/>
     </row>
-    <row r="31" spans="1:12" ht="22.5" thickBot="1">
+    <row r="31" spans="1:12" ht="18.75" thickBot="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="18" t="s">
@@ -2089,10 +2086,10 @@
         <v>4</v>
       </c>
       <c r="H31" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I31" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J31" s="3"/>
       <c r="K31"/>
@@ -2117,10 +2114,10 @@
         <v>5</v>
       </c>
       <c r="H32" s="20" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J32" s="3"/>
       <c r="K32"/>
@@ -2145,10 +2142,10 @@
         <v>4</v>
       </c>
       <c r="H33" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J33" s="3"/>
       <c r="K33"/>
@@ -2161,7 +2158,7 @@
         <v>67</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E34" s="18" t="s">
         <v>68</v>
@@ -2173,10 +2170,10 @@
         <v>4</v>
       </c>
       <c r="H34" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34"/>
@@ -2192,7 +2189,7 @@
         <v>82</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F35" s="18" t="s">
         <v>32</v>
@@ -2201,16 +2198,16 @@
         <v>4</v>
       </c>
       <c r="H35" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J35" s="3"/>
       <c r="K35"/>
       <c r="L35"/>
     </row>
-    <row r="36" spans="1:12" ht="44.25" thickBot="1">
+    <row r="36" spans="1:12" ht="54.75" thickBot="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="18" t="s">
@@ -2229,10 +2226,10 @@
         <v>5</v>
       </c>
       <c r="H36" s="20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="I36" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J36" s="3"/>
       <c r="K36"/>
@@ -2257,10 +2254,10 @@
         <v>4</v>
       </c>
       <c r="H37" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J37" s="3"/>
       <c r="K37"/>
@@ -2285,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="H38" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J38" s="3"/>
       <c r="K38"/>
@@ -2313,10 +2310,10 @@
         <v>5</v>
       </c>
       <c r="H39" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I39" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J39" s="3"/>
       <c r="K39"/>
@@ -2341,10 +2338,10 @@
         <v>5</v>
       </c>
       <c r="H40" s="20" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="I40" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="J40" s="3"/>
       <c r="K40"/>
@@ -2369,10 +2366,10 @@
         <v>5</v>
       </c>
       <c r="H41" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J41" s="3"/>
       <c r="K41"/>
@@ -2397,10 +2394,10 @@
         <v>5</v>
       </c>
       <c r="H42" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I42" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J42" s="3"/>
       <c r="K42"/>
@@ -2425,10 +2422,10 @@
         <v>4</v>
       </c>
       <c r="H43" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I43" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J43" s="3"/>
       <c r="K43"/>
@@ -2453,10 +2450,10 @@
         <v>5</v>
       </c>
       <c r="H44" s="20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I44" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J44" s="3"/>
       <c r="K44"/>
@@ -2481,10 +2478,10 @@
         <v>5</v>
       </c>
       <c r="H45" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I45" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J45" s="3"/>
       <c r="K45"/>
@@ -2509,10 +2506,10 @@
         <v>5</v>
       </c>
       <c r="H46" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I46" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J46" s="3"/>
       <c r="K46"/>
@@ -2537,10 +2534,10 @@
         <v>4</v>
       </c>
       <c r="H47" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I47" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J47" s="3"/>
       <c r="K47"/>
@@ -2565,10 +2562,10 @@
         <v>4</v>
       </c>
       <c r="H48" s="20" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="I48" s="21" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="J48" s="3"/>
       <c r="K48"/>
@@ -2577,26 +2574,24 @@
     <row r="49" spans="1:14" ht="36.75" thickBot="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
-      <c r="C49" s="18" t="s">
-        <v>130</v>
-      </c>
+      <c r="C49" s="18"/>
       <c r="D49" s="19" t="s">
-        <v>131</v>
+        <v>183</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>132</v>
+        <v>184</v>
       </c>
       <c r="F49" s="18" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G49" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="H49" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="I49" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J49" s="3"/>
       <c r="K49"/>
@@ -2606,13 +2601,13 @@
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="18" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>30</v>
@@ -2621,10 +2616,10 @@
         <v>4</v>
       </c>
       <c r="H50" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I50" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="I50" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="J50" s="3"/>
       <c r="K50"/>
@@ -2634,13 +2629,13 @@
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="18" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F51" s="18" t="s">
         <v>27</v>
@@ -2649,10 +2644,10 @@
         <v>5</v>
       </c>
       <c r="H51" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I51" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="I51" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="J51" s="3"/>
       <c r="K51"/>
@@ -2662,13 +2657,13 @@
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="18" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F52" s="18" t="s">
         <v>32</v>
@@ -2677,10 +2672,10 @@
         <v>4</v>
       </c>
       <c r="H52" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I52" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="I52" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="J52" s="3"/>
       <c r="K52"/>
@@ -2690,13 +2685,13 @@
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>27</v>
@@ -2705,10 +2700,10 @@
         <v>4</v>
       </c>
       <c r="H53" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="I53" s="21" t="s">
         <v>168</v>
-      </c>
-      <c r="I53" s="21" t="s">
-        <v>171</v>
       </c>
       <c r="J53" s="3"/>
       <c r="K53"/>
@@ -2718,13 +2713,13 @@
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="18" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F54" s="18" t="s">
         <v>27</v>
@@ -2733,10 +2728,10 @@
         <v>4</v>
       </c>
       <c r="H54" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I54" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J54" s="3"/>
       <c r="K54"/>
@@ -2746,13 +2741,13 @@
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="18" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>32</v>
@@ -2761,10 +2756,10 @@
         <v>4</v>
       </c>
       <c r="H55" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I55" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J55" s="3"/>
       <c r="K55"/>
@@ -2774,13 +2769,13 @@
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="18" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F56" s="18" t="s">
         <v>30</v>
@@ -2789,10 +2784,10 @@
         <v>5</v>
       </c>
       <c r="H56" s="20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I56" s="21" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J56" s="3"/>
       <c r="K56"/>
@@ -2802,13 +2797,13 @@
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F57" s="18" t="s">
         <v>27</v>
@@ -2817,10 +2812,10 @@
         <v>4</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I57" s="23" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="J57" s="15"/>
       <c r="K57"/>
